--- a/data/cristageone.xlsx
+++ b/data/cristageone.xlsx
@@ -2157,10 +2157,10 @@
   <dimension ref="A1:EP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="EB26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="ER34" sqref="ER34"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16266,287 +16266,431 @@
       <c r="D34">
         <v>0</v>
       </c>
+      <c r="E34">
+        <v>-5.2999999999999936E-2</v>
+      </c>
       <c r="F34">
         <v>0.93799999999999994</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
+      <c r="H34">
+        <v>-9.000000000000008E-3</v>
+      </c>
       <c r="I34">
         <v>1.0169999999999999</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
+      <c r="K34">
+        <v>1.6000000000000014E-2</v>
+      </c>
       <c r="L34">
         <v>0.93200000000000005</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
+      <c r="N34">
+        <v>-1.2999999999999901E-2</v>
+      </c>
       <c r="O34">
         <v>1.0309999999999999</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
+      <c r="Q34">
+        <v>-4.8000000000000043E-2</v>
+      </c>
       <c r="R34">
         <v>0.97499999999999998</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
+      <c r="T34">
+        <v>8.0000000000000071E-3</v>
+      </c>
       <c r="U34">
         <v>0.93899999999999995</v>
       </c>
       <c r="V34">
         <v>1</v>
       </c>
+      <c r="W34">
+        <v>-1.0000000000000009E-3</v>
+      </c>
       <c r="X34">
         <v>1.0069999999999999</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
+      <c r="Z34">
+        <v>3.5999999999999921E-2</v>
+      </c>
       <c r="AA34">
         <v>1.02</v>
       </c>
       <c r="AB34">
         <v>0</v>
       </c>
+      <c r="AC34">
+        <v>2.1000000000000019E-2</v>
+      </c>
       <c r="AD34">
         <v>1.018</v>
       </c>
       <c r="AE34">
         <v>0</v>
       </c>
+      <c r="AF34">
+        <v>2.6000000000000023E-2</v>
+      </c>
       <c r="AG34">
         <v>0.93100000000000005</v>
       </c>
       <c r="AH34">
         <v>1</v>
       </c>
+      <c r="AI34">
+        <v>-1.19999999999999E-2</v>
+      </c>
       <c r="AJ34">
         <v>0.99099999999999999</v>
       </c>
       <c r="AK34">
         <v>0</v>
       </c>
+      <c r="AL34">
+        <v>2.200000000000002E-2</v>
+      </c>
       <c r="AM34">
         <v>1.038</v>
       </c>
       <c r="AN34">
         <v>0</v>
       </c>
+      <c r="AO34">
+        <v>-2.8999999999999915E-2</v>
+      </c>
       <c r="AP34">
         <v>0.999</v>
       </c>
       <c r="AQ34">
         <v>0</v>
       </c>
+      <c r="AR34">
+        <v>-4.3000000000000038E-2</v>
+      </c>
       <c r="AS34">
         <v>0.95499999999999996</v>
       </c>
       <c r="AT34">
         <v>1</v>
       </c>
+      <c r="AU34">
+        <v>3.499999999999992E-2</v>
+      </c>
       <c r="AV34">
         <v>0.98499999999999999</v>
       </c>
       <c r="AW34">
         <v>1</v>
       </c>
+      <c r="AX34">
+        <v>-3.3999999999999919E-2</v>
+      </c>
       <c r="AY34">
         <v>1.03</v>
       </c>
       <c r="AZ34">
         <v>0</v>
       </c>
+      <c r="BA34">
+        <v>2.9000000000000137E-2</v>
+      </c>
       <c r="BB34">
         <v>0.98799999999999999</v>
       </c>
       <c r="BC34">
         <v>0</v>
       </c>
+      <c r="BD34">
+        <v>-1.100000000000001E-2</v>
+      </c>
       <c r="BE34">
         <v>0.94899999999999995</v>
       </c>
       <c r="BF34">
         <v>1</v>
       </c>
+      <c r="BG34">
+        <v>1.9999999999999907E-2</v>
+      </c>
       <c r="BH34">
         <v>0.98499999999999999</v>
       </c>
       <c r="BI34">
         <v>0</v>
       </c>
+      <c r="BJ34">
+        <v>-2.5999999999999912E-2</v>
+      </c>
       <c r="BK34">
         <v>1.111</v>
       </c>
       <c r="BL34">
         <v>1</v>
       </c>
+      <c r="BM34">
+        <v>-3.2999999999999918E-2</v>
+      </c>
       <c r="BN34">
         <v>0.95899999999999996</v>
       </c>
       <c r="BO34">
         <v>1</v>
       </c>
+      <c r="BP34">
+        <v>-3.400000000000003E-2</v>
+      </c>
       <c r="BQ34">
         <v>1.06</v>
       </c>
       <c r="BR34">
         <v>1</v>
       </c>
+      <c r="BS34">
+        <v>4.2000000000000037E-2</v>
+      </c>
       <c r="BT34">
         <v>1.0049999999999999</v>
       </c>
       <c r="BU34">
         <v>0</v>
       </c>
+      <c r="BV34">
+        <v>-2.200000000000002E-2</v>
+      </c>
       <c r="BW34">
         <v>0.98</v>
       </c>
       <c r="BX34">
         <v>0</v>
       </c>
+      <c r="BY34">
+        <v>2.4000000000000021E-2</v>
+      </c>
       <c r="BZ34">
         <v>1.107</v>
       </c>
       <c r="CA34">
         <v>1</v>
       </c>
+      <c r="CB34">
+        <v>-3.0000000000000027E-2</v>
+      </c>
       <c r="CC34">
         <v>1.024</v>
       </c>
       <c r="CD34">
         <v>0</v>
       </c>
+      <c r="CE34">
+        <v>4.2000000000000037E-2</v>
+      </c>
       <c r="CF34">
         <v>0.96099999999999997</v>
       </c>
       <c r="CG34">
         <v>1</v>
       </c>
+      <c r="CH34">
+        <v>-3.2000000000000028E-2</v>
+      </c>
       <c r="CI34">
         <v>1.0169999999999999</v>
       </c>
       <c r="CJ34">
         <v>0</v>
       </c>
+      <c r="CK34">
+        <v>2.5999999999999912E-2</v>
+      </c>
       <c r="CL34">
         <v>1.0620000000000001</v>
       </c>
       <c r="CM34">
         <v>1</v>
       </c>
+      <c r="CN34">
+        <v>4.4000000000000039E-2</v>
+      </c>
       <c r="CO34">
         <v>1.016</v>
       </c>
       <c r="CP34">
         <v>0</v>
       </c>
+      <c r="CQ34">
+        <v>4.3000000000000038E-2</v>
+      </c>
       <c r="CR34">
         <v>1.0069999999999999</v>
       </c>
       <c r="CS34">
         <v>0</v>
       </c>
+      <c r="CT34">
+        <v>-2.200000000000002E-2</v>
+      </c>
       <c r="CU34">
         <v>0.96</v>
       </c>
       <c r="CV34">
         <v>1</v>
       </c>
+      <c r="CW34">
+        <v>-5.2000000000000046E-2</v>
+      </c>
       <c r="CX34">
         <v>1.17</v>
       </c>
       <c r="CY34">
         <v>1</v>
       </c>
+      <c r="CZ34">
+        <v>4.2999999999999927E-2</v>
+      </c>
       <c r="DA34">
         <v>0.96099999999999997</v>
       </c>
       <c r="DB34">
         <v>1</v>
       </c>
+      <c r="DC34">
+        <v>-9.000000000000008E-3</v>
+      </c>
       <c r="DD34">
         <v>1.026</v>
       </c>
       <c r="DE34">
         <v>0</v>
       </c>
+      <c r="DF34">
+        <v>-1.0000000000000009E-2</v>
+      </c>
       <c r="DG34">
         <v>0.95699999999999996</v>
       </c>
       <c r="DH34">
         <v>1</v>
       </c>
+      <c r="DI34">
+        <v>-2.7000000000000024E-2</v>
+      </c>
       <c r="DJ34">
         <v>1.1319999999999999</v>
       </c>
       <c r="DK34">
         <v>1</v>
       </c>
+      <c r="DL34">
+        <v>8.9999999999999858E-2</v>
+      </c>
       <c r="DM34">
         <v>0.91900000000000004</v>
       </c>
       <c r="DN34">
         <v>1</v>
       </c>
+      <c r="DO34">
+        <v>-2.0000000000000018E-3</v>
+      </c>
       <c r="DP34">
         <v>1.169</v>
       </c>
       <c r="DQ34">
         <v>1</v>
       </c>
+      <c r="DR34">
+        <v>-1.0999999999999899E-2</v>
+      </c>
       <c r="DS34">
         <v>1.1160000000000001</v>
       </c>
       <c r="DT34">
         <v>1</v>
       </c>
+      <c r="DU34">
+        <v>6.0000000000000053E-3</v>
+      </c>
       <c r="DV34">
         <v>1.0449999999999999</v>
       </c>
       <c r="DW34">
         <v>0</v>
       </c>
+      <c r="DX34">
+        <v>-0.1180000000000001</v>
+      </c>
       <c r="DY34">
         <v>0.98399999999999999</v>
       </c>
       <c r="DZ34">
         <v>0</v>
       </c>
+      <c r="EA34">
+        <v>5.3999999999999937E-2</v>
+      </c>
       <c r="EB34">
         <v>0.94199999999999995</v>
       </c>
       <c r="EC34">
         <v>1</v>
       </c>
+      <c r="ED34">
+        <v>-8.6999999999999966E-2</v>
+      </c>
       <c r="EE34">
         <v>1.0589999999999999</v>
       </c>
       <c r="EF34">
         <v>1</v>
       </c>
+      <c r="EG34">
+        <v>6.3999999999999946E-2</v>
+      </c>
       <c r="EH34">
         <v>1.0089999999999999</v>
       </c>
       <c r="EI34">
         <v>0</v>
       </c>
+      <c r="EJ34">
+        <v>-1.1000000000000121E-2</v>
+      </c>
       <c r="EK34">
         <v>1.044</v>
       </c>
       <c r="EL34">
         <v>1</v>
       </c>
+      <c r="EM34">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="EN34">
         <v>0.92100000000000004</v>
       </c>
       <c r="EO34">
         <v>1</v>
+      </c>
+      <c r="EP34">
+        <v>-0.16599999999999993</v>
       </c>
     </row>
     <row r="35" spans="1:146" x14ac:dyDescent="0.3">

--- a/data/cristageone.xlsx
+++ b/data/cristageone.xlsx
@@ -2182,10 +2182,10 @@
   <dimension ref="A1:EP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AH38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A70" sqref="A70:XFD70"/>
+      <selection pane="bottomRight" activeCell="CV47" sqref="CV47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -22010,12 +22010,6 @@
       </c>
       <c r="CU47" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="CV47" s="2">
-        <v>0</v>
-      </c>
-      <c r="CW47" s="2" t="e">
-        <v>#VALUE!</v>
       </c>
       <c r="CX47" s="2" t="s">
         <v>144</v>

--- a/data/cristageone.xlsx
+++ b/data/cristageone.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3720" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3720" uniqueCount="603">
   <si>
     <t>Team ID</t>
   </si>
@@ -819,12 +819,6 @@
   </si>
   <si>
     <t>0.889</t>
-  </si>
-  <si>
-    <t>0.894</t>
-  </si>
-  <si>
-    <t>1.101</t>
   </si>
   <si>
     <t>1.198</t>
@@ -2182,10 +2176,10 @@
   <dimension ref="A1:EP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="BC68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="BK73" sqref="BK73:EP73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2201,436 +2195,436 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:146" x14ac:dyDescent="0.3">
@@ -2677,7 +2671,7 @@
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P2" s="2">
         <v>0</v>
@@ -2821,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="BL2" s="2">
         <v>1</v>
@@ -2938,7 +2932,7 @@
         <v>-1.9999999999998908E-3</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CY2" s="2">
         <v>0</v>
@@ -2956,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="DE2" s="2">
         <v>0</v>
@@ -2974,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="DK2" s="2">
         <v>0</v>
@@ -2992,7 +2986,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="DQ2" s="2">
         <v>1</v>
@@ -3889,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -4024,7 +4018,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AW5" s="2">
         <v>0</v>
@@ -4069,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="BK5" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="BL5" s="2">
         <v>1</v>
@@ -4114,7 +4108,7 @@
         <v>1.7000000000000015E-2</v>
       </c>
       <c r="BZ5" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="CA5" s="2">
         <v>1</v>
@@ -4186,7 +4180,7 @@
         <v>-1.0999999999999899E-2</v>
       </c>
       <c r="CX5" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CY5" s="2">
         <v>1</v>
@@ -4266,7 +4260,7 @@
         <v>-0.17599999999999993</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -4392,7 +4386,7 @@
         <v>0.13900000000000001</v>
       </c>
       <c r="AV6" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AW6" s="2">
         <v>0</v>
@@ -4437,7 +4431,7 @@
         <v>-2.300000000000002E-2</v>
       </c>
       <c r="BK6" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="BL6" s="2">
         <v>1</v>
@@ -4482,7 +4476,7 @@
         <v>0.10199999999999998</v>
       </c>
       <c r="BZ6" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="CA6" s="2">
         <v>1</v>
@@ -4518,7 +4512,7 @@
         <v>6.6999999999999948E-2</v>
       </c>
       <c r="CL6" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="CM6" s="2">
         <v>1</v>
@@ -4554,7 +4548,7 @@
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="CX6" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="CY6" s="2">
         <v>1</v>
@@ -4608,7 +4602,7 @@
         <v>0.16099999999999992</v>
       </c>
       <c r="DP6" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="DQ6" s="2">
         <v>1</v>
@@ -4661,7 +4655,7 @@
         <v>1.2000000000000011E-2</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
@@ -4805,7 +4799,7 @@
         <v>-7.0000000000001172E-3</v>
       </c>
       <c r="BK7" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="BL7" s="2">
         <v>1</v>
@@ -4850,7 +4844,7 @@
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="BZ7" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="CA7" s="2">
         <v>1</v>
@@ -4922,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="CX7" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="CY7" s="2">
         <v>1</v>
@@ -4976,7 +4970,7 @@
         <v>1.5000000000000013E-2</v>
       </c>
       <c r="DP7" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="DQ7" s="2">
         <v>1</v>
@@ -5029,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P8" s="2">
         <v>0</v>
@@ -5065,7 +5059,7 @@
         <v>1.8000000000000016E-2</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AB8" s="2">
         <v>0</v>
@@ -5101,7 +5095,7 @@
         <v>2.200000000000002E-2</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AN8" s="2">
         <v>0</v>
@@ -5110,7 +5104,7 @@
         <v>-1.2999999999999901E-2</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AQ8" s="2">
         <v>1</v>
@@ -5137,7 +5131,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="AY8" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
@@ -5146,7 +5140,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="BB8" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BC8" s="2">
         <v>0</v>
@@ -5173,7 +5167,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="BK8" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BL8" s="2">
         <v>0</v>
@@ -5182,7 +5176,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="BN8" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="BO8" s="2">
         <v>0</v>
@@ -5191,7 +5185,7 @@
         <v>3.3000000000000029E-2</v>
       </c>
       <c r="BQ8" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="BR8" s="2">
         <v>1</v>
@@ -5209,7 +5203,7 @@
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="BW8" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BX8" s="2">
         <v>0</v>
@@ -5236,7 +5230,7 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="CF8" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="CG8" s="2">
         <v>0</v>
@@ -5263,7 +5257,7 @@
         <v>0.1339999999999999</v>
       </c>
       <c r="CO8" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="CP8" s="2">
         <v>0</v>
@@ -5281,7 +5275,7 @@
         <v>-5.0999999999999934E-2</v>
       </c>
       <c r="CU8" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CX8" s="2" t="s">
         <v>144</v>
@@ -5293,7 +5287,7 @@
         <v>-0.13900000000000001</v>
       </c>
       <c r="DA8" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="DB8" s="2">
         <v>0</v>
@@ -5302,7 +5296,7 @@
         <v>2.7000000000000024E-2</v>
       </c>
       <c r="DD8" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="DE8" s="2">
         <v>0</v>
@@ -5535,7 +5529,7 @@
         <v>-3.0000000000001137E-3</v>
       </c>
       <c r="BK9" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BL9" s="2">
         <v>1</v>
@@ -5688,7 +5682,7 @@
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="DJ9" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="DK9" s="2">
         <v>1</v>
@@ -6639,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P12" s="2">
         <v>0</v>
@@ -6648,7 +6642,7 @@
         <v>-4.9999999999998934E-3</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S12" s="2">
         <v>0</v>
@@ -6711,7 +6705,7 @@
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AN12" s="2">
         <v>0</v>
@@ -6738,7 +6732,7 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="AV12" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AW12" s="2">
         <v>0</v>
@@ -6747,7 +6741,7 @@
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="AY12" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AZ12" s="2">
         <v>0</v>
@@ -6774,7 +6768,7 @@
         <v>-4.0000000000000036E-3</v>
       </c>
       <c r="BH12" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BI12" s="2">
         <v>0</v>
@@ -6819,7 +6813,7 @@
         <v>-3.0000000000000027E-2</v>
       </c>
       <c r="BW12" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="BX12" s="2">
         <v>0</v>
@@ -6828,7 +6822,7 @@
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="BZ12" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="CA12" s="2">
         <v>1</v>
@@ -6891,7 +6885,7 @@
         <v>-3.0999999999999917E-2</v>
       </c>
       <c r="CU12" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="CV12" s="2">
         <v>0</v>
@@ -6909,7 +6903,7 @@
         <v>-4.8999999999999932E-2</v>
       </c>
       <c r="DA12" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="DB12" s="2">
         <v>0</v>
@@ -6971,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -7043,7 +7037,7 @@
         <v>-3.3999999999999919E-2</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AB13" s="2">
         <v>0</v>
@@ -7070,7 +7064,7 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AK13" s="2">
         <v>0</v>
@@ -7124,7 +7118,7 @@
         <v>-2.4000000000000021E-2</v>
       </c>
       <c r="BB13" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="BC13" s="2">
         <v>0</v>
@@ -7151,7 +7145,7 @@
         <v>-1.1000000000000121E-2</v>
       </c>
       <c r="BK13" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="BL13" s="2">
         <v>0</v>
@@ -7169,7 +7163,7 @@
         <v>-3.1000000000000028E-2</v>
       </c>
       <c r="BQ13" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="BR13" s="2">
         <v>0</v>
@@ -7187,7 +7181,7 @@
         <v>-1.8000000000000016E-2</v>
       </c>
       <c r="BW13" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BX13" s="2">
         <v>0</v>
@@ -7223,7 +7217,7 @@
         <v>-5.1999999999999935E-2</v>
       </c>
       <c r="CI13" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="CJ13" s="2">
         <v>0</v>
@@ -7250,7 +7244,7 @@
         <v>4.4000000000000039E-2</v>
       </c>
       <c r="CR13" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="CS13" s="2">
         <v>0</v>
@@ -7259,7 +7253,7 @@
         <v>-0.15099999999999991</v>
       </c>
       <c r="CU13" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CV13" s="2">
         <v>0</v>
@@ -7268,7 +7262,7 @@
         <v>0.12800000000000011</v>
       </c>
       <c r="CX13" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CY13" s="2">
         <v>0</v>
@@ -7339,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -7375,7 +7369,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P14" s="2">
         <v>1</v>
@@ -7447,7 +7441,7 @@
         <v>2.1000000000000019E-2</v>
       </c>
       <c r="AM14" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AN14" s="2">
         <v>0</v>
@@ -7483,7 +7477,7 @@
         <v>2.9999999999998916E-3</v>
       </c>
       <c r="AY14" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AZ14" s="2">
         <v>0</v>
@@ -7519,7 +7513,7 @@
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="BK14" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="BL14" s="2">
         <v>1</v>
@@ -7672,7 +7666,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="DJ14" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="DK14" s="2">
         <v>1</v>
@@ -7690,7 +7684,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="DP14" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="DQ14" s="2">
         <v>1</v>
@@ -8040,7 +8034,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="DJ15" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="DK15" s="2">
         <v>0</v>
@@ -9503,7 +9497,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AM19" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AN19" s="2">
         <v>0</v>
@@ -9575,7 +9569,7 @@
         <v>-1.0000000000001119E-3</v>
       </c>
       <c r="BK19" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="BL19" s="2">
         <v>1</v>
@@ -9728,7 +9722,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="DJ19" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="DK19" s="2">
         <v>1</v>
@@ -10428,7 +10422,7 @@
         <v>1.3000000000000012E-2</v>
       </c>
       <c r="BZ21" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="CA21" s="2">
         <v>1</v>
@@ -10536,7 +10530,7 @@
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="DJ21" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="DK21" s="2">
         <v>1</v>
@@ -11047,7 +11041,7 @@
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P23" s="2">
         <v>0</v>
@@ -11056,7 +11050,7 @@
         <v>5.0000000000001155E-3</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S23" s="2">
         <v>0</v>
@@ -11083,7 +11077,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AB23" s="2">
         <v>0</v>
@@ -11119,7 +11113,7 @@
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AM23" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AN23" s="2">
         <v>0</v>
@@ -11128,7 +11122,7 @@
         <v>7.0000000000001172E-3</v>
       </c>
       <c r="AP23" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ23" s="2">
         <v>0</v>
@@ -11146,7 +11140,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="AV23" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AW23" s="2">
         <v>0</v>
@@ -11155,7 +11149,7 @@
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="AY23" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AZ23" s="2">
         <v>0</v>
@@ -11173,7 +11167,7 @@
         <v>-9.9999999999988987E-4</v>
       </c>
       <c r="BE23" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="BF23" s="2">
         <v>0</v>
@@ -11182,7 +11176,7 @@
         <v>5.9999999999998943E-3</v>
       </c>
       <c r="BH23" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BI23" s="2">
         <v>0</v>
@@ -11209,7 +11203,7 @@
         <v>-7.0000000000000062E-3</v>
       </c>
       <c r="BQ23" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BR23" s="2">
         <v>0</v>
@@ -11218,7 +11212,7 @@
         <v>5.0000000000001155E-3</v>
       </c>
       <c r="BT23" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BU23" s="2">
         <v>0</v>
@@ -11227,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="BW23" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BX23" s="2">
         <v>0</v>
@@ -11272,7 +11266,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="CL23" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="CM23" s="2">
         <v>0</v>
@@ -11290,7 +11284,7 @@
         <v>6.0000000000000053E-3</v>
       </c>
       <c r="CR23" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="CS23" s="2">
         <v>0</v>
@@ -11308,7 +11302,7 @@
         <v>-9.9999999999988987E-4</v>
       </c>
       <c r="CX23" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="CY23" s="2">
         <v>0</v>
@@ -11326,7 +11320,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="DD23" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="DE23" s="2">
         <v>0</v>
@@ -11335,7 +11329,7 @@
         <v>-2.200000000000002E-2</v>
       </c>
       <c r="DG23" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="DH23" s="2">
         <v>0</v>
@@ -11344,7 +11338,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="DJ23" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="DK23" s="2">
         <v>0</v>
@@ -11379,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -11415,7 +11409,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P24" s="2">
         <v>1</v>
@@ -11487,7 +11481,7 @@
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AM24" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AN24" s="2">
         <v>0</v>
@@ -11559,7 +11553,7 @@
         <v>9.9999999999988987E-4</v>
       </c>
       <c r="BK24" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="BL24" s="2">
         <v>1</v>
@@ -11730,7 +11724,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="DP24" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="DQ24" s="2">
         <v>1</v>
@@ -11855,7 +11849,7 @@
         <v>0</v>
       </c>
       <c r="AM25" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AN25" s="2">
         <v>1</v>
@@ -11918,7 +11912,7 @@
         <v>6.9999999999998952E-3</v>
       </c>
       <c r="BH25" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BI25" s="2">
         <v>0</v>
@@ -12098,7 +12092,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="DP25" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="DQ25" s="2">
         <v>1</v>
@@ -12906,7 +12900,7 @@
         <v>1.8000000000000016E-2</v>
       </c>
       <c r="DP27" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="DQ27" s="2">
         <v>1</v>
@@ -12932,7 +12926,7 @@
         <v>-0.11399999999999999</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -12941,7 +12935,7 @@
         <v>-0.122</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
@@ -12959,7 +12953,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P28" s="2">
         <v>1</v>
@@ -12968,7 +12962,7 @@
         <v>-0.16399999999999992</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="S28" s="2">
         <v>1</v>
@@ -12977,7 +12971,7 @@
         <v>0.16900000000000015</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="V28" s="2">
         <v>1</v>
@@ -12986,7 +12980,7 @@
         <v>-0.21499999999999997</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Y28" s="2">
         <v>1</v>
@@ -12995,7 +12989,7 @@
         <v>-0.21899999999999997</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AB28" s="2">
         <v>1</v>
@@ -13013,7 +13007,7 @@
         <v>0.14900000000000013</v>
       </c>
       <c r="AG28" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AH28" s="2">
         <v>1</v>
@@ -13058,7 +13052,7 @@
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="AV28" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AW28" s="2">
         <v>1</v>
@@ -13103,7 +13097,7 @@
         <v>-7.4999999999999956E-2</v>
       </c>
       <c r="BK28" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="BL28" s="2">
         <v>1</v>
@@ -13112,7 +13106,7 @@
         <v>-0.41900000000000004</v>
       </c>
       <c r="BN28" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BO28" s="2">
         <v>1</v>
@@ -13121,7 +13115,7 @@
         <v>-0.31199999999999994</v>
       </c>
       <c r="BQ28" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="BR28" s="2">
         <v>1</v>
@@ -13130,7 +13124,7 @@
         <v>-0.28199999999999992</v>
       </c>
       <c r="BT28" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BU28" s="2">
         <v>1</v>
@@ -13157,7 +13151,7 @@
         <v>-0.39</v>
       </c>
       <c r="CC28" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="CD28" s="2">
         <v>1</v>
@@ -13166,7 +13160,7 @@
         <v>-0.18899999999999995</v>
       </c>
       <c r="CF28" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CG28" s="2">
         <v>1</v>
@@ -13175,7 +13169,7 @@
         <v>-0.32199999999999995</v>
       </c>
       <c r="CI28" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="CJ28" s="2">
         <v>1</v>
@@ -13184,7 +13178,7 @@
         <v>0.16300000000000003</v>
       </c>
       <c r="CL28" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="CM28" s="2">
         <v>1</v>
@@ -13202,7 +13196,7 @@
         <v>0.11699999999999999</v>
       </c>
       <c r="CR28" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="CS28" s="2">
         <v>1</v>
@@ -13220,7 +13214,7 @@
         <v>-7.9999999999998961E-3</v>
       </c>
       <c r="CX28" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="CY28" s="2">
         <v>1</v>
@@ -13229,7 +13223,7 @@
         <v>-0.40600000000000003</v>
       </c>
       <c r="DA28" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="DB28" s="2">
         <v>1</v>
@@ -13256,7 +13250,7 @@
         <v>-4.0000000000000036E-3</v>
       </c>
       <c r="DJ28" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="DK28" s="2">
         <v>1</v>
@@ -13291,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -13327,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P29" s="2">
         <v>1</v>
@@ -13480,7 +13474,7 @@
         <v>-4.0000000000000036E-3</v>
       </c>
       <c r="BN29" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BO29" s="2">
         <v>0</v>
@@ -13606,7 +13600,7 @@
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="DD29" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="DE29" s="2">
         <v>1</v>
@@ -13624,7 +13618,7 @@
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="DJ29" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="DK29" s="2">
         <v>1</v>
@@ -13642,7 +13636,7 @@
         <v>0</v>
       </c>
       <c r="DP29" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="DQ29" s="2">
         <v>1</v>
@@ -14099,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -14207,7 +14201,7 @@
         <v>-1.2000000000000011E-2</v>
       </c>
       <c r="AM31" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AN31" s="2">
         <v>1</v>
@@ -14279,7 +14273,7 @@
         <v>-1.2000000000000011E-2</v>
       </c>
       <c r="BK31" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BL31" s="2">
         <v>1</v>
@@ -14315,7 +14309,7 @@
         <v>-2.6000000000000023E-2</v>
       </c>
       <c r="BW31" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="BX31" s="2">
         <v>1</v>
@@ -14414,7 +14408,7 @@
         <v>-1.4000000000000012E-2</v>
       </c>
       <c r="DD31" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="DE31" s="2">
         <v>1</v>
@@ -14450,7 +14444,7 @@
         <v>-2.9000000000000026E-2</v>
       </c>
       <c r="DP31" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="DQ31" s="2">
         <v>1</v>
@@ -14961,7 +14955,7 @@
         <v>1.5000000000000013E-2</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="V33" s="2">
         <v>1</v>
@@ -14997,7 +14991,7 @@
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AH33" s="2">
         <v>1</v>
@@ -15015,7 +15009,7 @@
         <v>-1.6000000000000014E-2</v>
       </c>
       <c r="AM33" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AN33" s="2">
         <v>0</v>
@@ -15033,7 +15027,7 @@
         <v>-7.0000000000001172E-3</v>
       </c>
       <c r="AS33" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AT33" s="2">
         <v>1</v>
@@ -15069,7 +15063,7 @@
         <v>1.1000000000000121E-2</v>
       </c>
       <c r="BE33" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="BF33" s="2">
         <v>0</v>
@@ -15087,7 +15081,7 @@
         <v>6.9999999999998952E-3</v>
       </c>
       <c r="BK33" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BL33" s="2">
         <v>1</v>
@@ -15275,7 +15269,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -15626,7 +15620,7 @@
         <v>1.5000000000000013E-2</v>
       </c>
       <c r="DP34" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="DQ34" s="2">
         <v>1</v>
@@ -16128,7 +16122,7 @@
         <v>-9.9999999999988987E-4</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="S36" s="2">
         <v>0</v>
@@ -16191,7 +16185,7 @@
         <v>2.300000000000002E-2</v>
       </c>
       <c r="AM36" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AN36" s="2">
         <v>0</v>
@@ -16425,7 +16419,7 @@
         <v>-3.300000000000014E-2</v>
       </c>
       <c r="DM36" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="DN36" s="2">
         <v>1</v>
@@ -16434,7 +16428,7 @@
         <v>-7.0000000000000062E-3</v>
       </c>
       <c r="DP36" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="DQ36" s="2">
         <v>1</v>
@@ -19549,7 +19543,7 @@
         <v>1.8000000000000016E-2</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
@@ -19603,7 +19597,7 @@
         <v>1.8000000000000016E-2</v>
       </c>
       <c r="AA44" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AB44" s="2">
         <v>0</v>
@@ -19639,7 +19633,7 @@
         <v>1.2000000000000011E-2</v>
       </c>
       <c r="AM44" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AN44" s="2">
         <v>0</v>
@@ -19648,7 +19642,7 @@
         <v>7.0000000000001172E-3</v>
       </c>
       <c r="AP44" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ44" s="2">
         <v>0</v>
@@ -19666,7 +19660,7 @@
         <v>2.4999999999999911E-2</v>
       </c>
       <c r="AV44" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AW44" s="2">
         <v>0</v>
@@ -19675,7 +19669,7 @@
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="AY44" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AZ44" s="2">
         <v>0</v>
@@ -19729,7 +19723,7 @@
         <v>-7.0000000000000062E-3</v>
       </c>
       <c r="BQ44" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="BR44" s="2">
         <v>0</v>
@@ -19747,7 +19741,7 @@
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="BW44" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BX44" s="2">
         <v>0</v>
@@ -19765,7 +19759,7 @@
         <v>-1.1000000000000121E-2</v>
       </c>
       <c r="CC44" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="CD44" s="2">
         <v>0</v>
@@ -19792,7 +19786,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="CL44" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="CM44" s="2">
         <v>0</v>
@@ -19846,7 +19840,7 @@
         <v>1.7000000000000015E-2</v>
       </c>
       <c r="DD44" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="DE44" s="2">
         <v>0</v>
@@ -19855,7 +19849,7 @@
         <v>-3.2000000000000028E-2</v>
       </c>
       <c r="DG44" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="DH44" s="2">
         <v>0</v>
@@ -19864,7 +19858,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="DJ44" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="DK44" s="2">
         <v>1</v>
@@ -20959,7 +20953,7 @@
         <v>0</v>
       </c>
       <c r="BK47" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BL47" s="2">
         <v>1</v>
@@ -22027,7 +22021,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -22063,7 +22057,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P50" s="2">
         <v>1</v>
@@ -22207,7 +22201,7 @@
         <v>-1.0000000000001119E-3</v>
       </c>
       <c r="BK50" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="BL50" s="2">
         <v>1</v>
@@ -22216,7 +22210,7 @@
         <v>2.9999999999998916E-3</v>
       </c>
       <c r="BN50" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="BO50" s="2">
         <v>0</v>
@@ -22324,7 +22318,7 @@
         <v>-9.9999999999988987E-4</v>
       </c>
       <c r="CX50" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="CY50" s="2">
         <v>1</v>
@@ -22342,7 +22336,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="DD50" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="DE50" s="2">
         <v>1</v>
@@ -22378,7 +22372,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="DP50" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="DQ50" s="2">
         <v>1</v>
@@ -22548,7 +22542,7 @@
         <v>2.4000000000000021E-2</v>
       </c>
       <c r="BB51" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BC51" s="2">
         <v>0</v>
@@ -22728,7 +22722,7 @@
         <v>-2.6000000000000023E-2</v>
       </c>
       <c r="DJ51" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="DK51" s="2">
         <v>1</v>
@@ -22746,7 +22740,7 @@
         <v>-4.0000000000000036E-3</v>
       </c>
       <c r="DP51" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="DQ51" s="2">
         <v>1</v>
@@ -22856,7 +22850,7 @@
         <v>-0.26500000000000001</v>
       </c>
       <c r="BN52" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="BO52" s="3">
         <v>0</v>
@@ -22865,7 +22859,7 @@
         <v>-0.17899999999999994</v>
       </c>
       <c r="BQ52" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="BR52" s="3">
         <v>0</v>
@@ -22874,7 +22868,7 @@
         <v>-0.20299999999999996</v>
       </c>
       <c r="BT52" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="BU52" s="3">
         <v>0</v>
@@ -22999,7 +22993,7 @@
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P53" s="2">
         <v>0</v>
@@ -23008,7 +23002,7 @@
         <v>-2.4999999999999911E-2</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="S53" s="2">
         <v>0</v>
@@ -23071,7 +23065,7 @@
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AM53" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AN53" s="2">
         <v>0</v>
@@ -23098,7 +23092,7 @@
         <v>1.4999999999999902E-2</v>
       </c>
       <c r="AV53" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AW53" s="2">
         <v>1</v>
@@ -23107,7 +23101,7 @@
         <v>3.8000000000000034E-2</v>
       </c>
       <c r="AY53" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AZ53" s="2">
         <v>0</v>
@@ -23152,7 +23146,7 @@
         <v>8.999999999999897E-3</v>
       </c>
       <c r="BN53" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BO53" s="2">
         <v>1</v>
@@ -23161,7 +23155,7 @@
         <v>6.3000000000000056E-2</v>
       </c>
       <c r="BQ53" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BR53" s="2">
         <v>0</v>
@@ -23179,7 +23173,7 @@
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="BW53" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="BX53" s="2">
         <v>0</v>
@@ -23188,7 +23182,7 @@
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="BZ53" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="CA53" s="2">
         <v>1</v>
@@ -23206,7 +23200,7 @@
         <v>-1.5000000000000013E-2</v>
       </c>
       <c r="CF53" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="CG53" s="2">
         <v>1</v>
@@ -23224,7 +23218,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="CL53" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="CM53" s="2">
         <v>0</v>
@@ -23251,7 +23245,7 @@
         <v>7.9000000000000181E-2</v>
       </c>
       <c r="CU53" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="CV53" s="2">
         <v>0</v>
@@ -24247,7 +24241,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AM56" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AN56" s="2">
         <v>0</v>
@@ -24319,7 +24313,7 @@
         <v>-1.0000000000001119E-3</v>
       </c>
       <c r="BK56" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="BL56" s="2">
         <v>1</v>
@@ -24472,7 +24466,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="DJ56" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="DK56" s="2">
         <v>1</v>
@@ -24947,7 +24941,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D58" s="2">
         <v>1</v>
@@ -25055,7 +25049,7 @@
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AM58" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN58" s="2">
         <v>0</v>
@@ -25298,7 +25292,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="DP58" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="DQ58" s="2">
         <v>1</v>
@@ -25315,7 +25309,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D59" s="2">
         <v>0</v>
@@ -25333,7 +25327,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J59" s="2">
         <v>0</v>
@@ -25423,7 +25417,7 @@
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AM59" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AN59" s="2">
         <v>0</v>
@@ -25666,7 +25660,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="DP59" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="DQ59" s="2">
         <v>1</v>
@@ -25863,7 +25857,7 @@
         <v>-3.400000000000003E-2</v>
       </c>
       <c r="BK60" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="BL60" s="2">
         <v>0</v>
@@ -25872,7 +25866,7 @@
         <v>-0.44200000000000006</v>
       </c>
       <c r="BN60" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BO60" s="2">
         <v>1</v>
@@ -25881,7 +25875,7 @@
         <v>-0.22699999999999998</v>
       </c>
       <c r="BQ60" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="BR60" s="2">
         <v>1</v>
@@ -25890,7 +25884,7 @@
         <v>-0.29699999999999993</v>
       </c>
       <c r="BT60" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="BU60" s="2">
         <v>0</v>
@@ -25908,7 +25902,7 @@
         <v>0.10399999999999998</v>
       </c>
       <c r="BZ60" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="CA60" s="2">
         <v>1</v>
@@ -25926,7 +25920,7 @@
         <v>6.5000000000000058E-2</v>
       </c>
       <c r="CF60" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="CG60" s="2">
         <v>1</v>
@@ -25944,7 +25938,7 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="CL60" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="CM60" s="2">
         <v>1</v>
@@ -25962,7 +25956,7 @@
         <v>9.6000000000000085E-2</v>
       </c>
       <c r="CR60" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="CS60" s="2">
         <v>1</v>
@@ -25980,7 +25974,7 @@
         <v>-3.1999999999999917E-2</v>
       </c>
       <c r="CX60" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="CY60" s="2">
         <v>0</v>
@@ -25998,7 +25992,7 @@
         <v>6.0000000000000053E-3</v>
       </c>
       <c r="DD60" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="DE60" s="2">
         <v>1</v>
@@ -26016,7 +26010,7 @@
         <v>-1.6000000000000014E-2</v>
       </c>
       <c r="DJ60" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="DK60" s="2">
         <v>0</v>
@@ -26189,7 +26183,7 @@
         <v>-1.012</v>
       </c>
       <c r="BK61" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="BL61" s="2">
         <v>0</v>
@@ -26207,7 +26201,7 @@
         <v>-2.7000000000000024E-2</v>
       </c>
       <c r="BQ61" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BR61" s="2">
         <v>0</v>
@@ -26216,7 +26210,7 @@
         <v>8.3000000000000185E-2</v>
       </c>
       <c r="BT61" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="BU61" s="2">
         <v>0</v>
@@ -26234,7 +26228,7 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="BZ61" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="CA61" s="2">
         <v>1</v>
@@ -26252,7 +26246,7 @@
         <v>7.900000000000007E-2</v>
       </c>
       <c r="CF61" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="CG61" s="2">
         <v>1</v>
@@ -26288,7 +26282,7 @@
         <v>0.1160000000000001</v>
       </c>
       <c r="CR61" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="CS61" s="2">
         <v>1</v>
@@ -27241,7 +27235,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D65" s="2">
         <v>0</v>
@@ -27277,7 +27271,7 @@
         <v>1.5000000000000013E-2</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="P65" s="2">
         <v>0</v>
@@ -27340,7 +27334,7 @@
         <v>1.3000000000000012E-2</v>
       </c>
       <c r="AJ65" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AK65" s="2">
         <v>0</v>
@@ -27349,7 +27343,7 @@
         <v>3.2000000000000028E-2</v>
       </c>
       <c r="AM65" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AN65" s="2">
         <v>0</v>
@@ -27448,7 +27442,7 @@
         <v>7.0000000000001172E-3</v>
       </c>
       <c r="BT65" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BU65" s="2">
         <v>0</v>
@@ -27466,7 +27460,7 @@
         <v>2.300000000000002E-2</v>
       </c>
       <c r="BZ65" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="CA65" s="2">
         <v>0</v>
@@ -27520,7 +27514,7 @@
         <v>2.9000000000000026E-2</v>
       </c>
       <c r="CR65" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="CS65" s="2">
         <v>0</v>
@@ -29378,7 +29372,7 @@
         <v>-0.127</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G70" s="2">
         <v>0</v>
@@ -29387,7 +29381,7 @@
         <v>-0.10199999999999998</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J70" s="2">
         <v>0</v>
@@ -29396,7 +29390,7 @@
         <v>-0.14800000000000002</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M70" s="2">
         <v>0</v>
@@ -29405,7 +29399,7 @@
         <v>-0.15399999999999991</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="P70" s="2">
         <v>0</v>
@@ -29414,7 +29408,7 @@
         <v>-0.21099999999999997</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="S70" s="2">
         <v>0</v>
@@ -29423,7 +29417,7 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="U70" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="V70" s="2">
         <v>0</v>
@@ -29441,7 +29435,7 @@
         <v>0.1140000000000001</v>
       </c>
       <c r="AA70" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AB70" s="2">
         <v>0</v>
@@ -29450,7 +29444,7 @@
         <v>-0.123</v>
       </c>
       <c r="AD70" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AE70" s="2">
         <v>0</v>
@@ -29459,7 +29453,7 @@
         <v>0.31799999999999995</v>
       </c>
       <c r="AG70" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AH70" s="2">
         <v>0</v>
@@ -29468,7 +29462,7 @@
         <v>-0.13300000000000001</v>
       </c>
       <c r="AJ70" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AK70" s="2">
         <v>0</v>
@@ -29477,7 +29471,7 @@
         <v>0.15300000000000002</v>
       </c>
       <c r="AM70" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AN70" s="2">
         <v>0</v>
@@ -29513,7 +29507,7 @@
         <v>-9.3999999999999972E-2</v>
       </c>
       <c r="AY70" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AZ70" s="2">
         <v>0</v>
@@ -29531,7 +29525,7 @@
         <v>-1.2999999999999901E-2</v>
       </c>
       <c r="BE70" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BF70" s="2">
         <v>0</v>
@@ -29549,7 +29543,7 @@
         <v>-4.6000000000000041E-2</v>
       </c>
       <c r="BK70" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="BL70" s="2">
         <v>0</v>
@@ -29558,7 +29552,7 @@
         <v>-0.34700000000000009</v>
       </c>
       <c r="BN70" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="BO70" s="2">
         <v>0</v>
@@ -29576,7 +29570,7 @@
         <v>-0.18699999999999994</v>
       </c>
       <c r="BT70" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="BU70" s="2">
         <v>0</v>
@@ -29585,7 +29579,7 @@
         <v>-0.19600000000000006</v>
       </c>
       <c r="BW70" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="BX70" s="2">
         <v>0</v>
@@ -29594,7 +29588,7 @@
         <v>0.33999999999999997</v>
       </c>
       <c r="BZ70" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="CA70" s="2">
         <v>0</v>
@@ -29603,7 +29597,7 @@
         <v>-0.33100000000000007</v>
       </c>
       <c r="CC70" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="CD70" s="2">
         <v>0</v>
@@ -29612,7 +29606,7 @@
         <v>0.14300000000000013</v>
       </c>
       <c r="CF70" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="CG70" s="2">
         <v>0</v>
@@ -29621,7 +29615,7 @@
         <v>-0.17499999999999993</v>
       </c>
       <c r="CI70" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="CJ70" s="2">
         <v>0</v>
@@ -29630,7 +29624,7 @@
         <v>0.36099999999999999</v>
       </c>
       <c r="CL70" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="CM70" s="2">
         <v>0</v>
@@ -29648,7 +29642,7 @@
         <v>0.2410000000000001</v>
       </c>
       <c r="CR70" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="CS70" s="2">
         <v>0</v>
@@ -29702,7 +29696,7 @@
         <v>-2.4000000000000021E-2</v>
       </c>
       <c r="DJ70" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="DK70" s="2">
         <v>0</v>
@@ -29711,7 +29705,7 @@
         <v>-0.13600000000000001</v>
       </c>
       <c r="DM70" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="DN70" s="2">
         <v>0</v>
@@ -29773,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P71" s="2">
         <v>0</v>
@@ -29782,7 +29776,7 @@
         <v>-4.9999999999998934E-3</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S71" s="2">
         <v>0</v>
@@ -29800,7 +29794,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="X71" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Y71" s="2">
         <v>0</v>
@@ -29809,7 +29803,7 @@
         <v>2.8000000000000025E-2</v>
       </c>
       <c r="AA71" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AB71" s="2">
         <v>0</v>
@@ -29872,7 +29866,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="AV71" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AW71" s="2">
         <v>0</v>
@@ -29953,7 +29947,7 @@
         <v>0</v>
       </c>
       <c r="BW71" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BX71" s="2">
         <v>0</v>
@@ -30141,7 +30135,7 @@
         <v>1.9000000000000017E-2</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P72" s="2">
         <v>1</v>
@@ -30285,7 +30279,7 @@
         <v>-9.000000000000119E-3</v>
       </c>
       <c r="BK72" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BL72" s="2">
         <v>1</v>
@@ -30330,7 +30324,7 @@
         <v>5.3000000000000047E-2</v>
       </c>
       <c r="BZ72" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="CA72" s="2">
         <v>1</v>
@@ -30402,7 +30396,7 @@
         <v>-2.4999999999999911E-2</v>
       </c>
       <c r="CX72" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="CY72" s="2">
         <v>1</v>
@@ -30653,256 +30647,256 @@
         <v>0</v>
       </c>
       <c r="BK73" s="2" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="BL73" s="2">
         <v>1</v>
       </c>
       <c r="BM73" s="2">
-        <v>-3.8999999999999924E-2</v>
+        <v>0</v>
       </c>
       <c r="BN73" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BO73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP73" s="2">
-        <v>0.15099999999999991</v>
+        <v>0</v>
       </c>
       <c r="BQ73" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BR73" s="2">
         <v>0</v>
       </c>
       <c r="BS73" s="2">
-        <v>-2.5000000000000022E-2</v>
+        <v>0</v>
       </c>
       <c r="BT73" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BU73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV73" s="2">
-        <v>-1.0000000000000009E-2</v>
+        <v>0</v>
       </c>
       <c r="BW73" s="2" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="BX73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY73" s="2">
-        <v>-6.1999999999999944E-2</v>
+        <v>0</v>
       </c>
       <c r="BZ73" s="2" t="s">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="CA73" s="2">
         <v>1</v>
       </c>
       <c r="CB73" s="2">
-        <v>-3.6999999999999922E-2</v>
+        <v>0</v>
       </c>
       <c r="CC73" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CD73" s="2">
         <v>0</v>
       </c>
       <c r="CE73" s="2">
-        <v>-2.7000000000000024E-2</v>
+        <v>0</v>
       </c>
       <c r="CF73" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CG73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH73" s="2">
-        <v>0.14399999999999991</v>
+        <v>0</v>
       </c>
       <c r="CI73" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CJ73" s="2">
         <v>0</v>
       </c>
       <c r="CK73" s="2">
-        <v>-8.0000000000000071E-3</v>
+        <v>0</v>
       </c>
       <c r="CL73" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CM73" s="2">
         <v>0</v>
       </c>
       <c r="CN73" s="2">
-        <v>-2.4999999999999911E-2</v>
+        <v>0</v>
       </c>
       <c r="CO73" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CP73" s="2">
         <v>0</v>
       </c>
       <c r="CQ73" s="2">
-        <v>1.7000000000000015E-2</v>
+        <v>0</v>
       </c>
       <c r="CR73" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CS73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT73" s="2">
-        <v>-1.0000000000000009E-2</v>
+        <v>0</v>
       </c>
       <c r="CU73" s="2" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="CV73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW73" s="2">
-        <v>-7.8999999999999848E-2</v>
+        <v>0</v>
       </c>
       <c r="CX73" s="2" t="s">
-        <v>267</v>
+        <v>34</v>
       </c>
       <c r="CY73" s="2">
         <v>1</v>
       </c>
       <c r="CZ73" s="2">
-        <v>7.0000000000000062E-2</v>
+        <v>0</v>
       </c>
       <c r="DA73" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="DB73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC73" s="2">
-        <v>3.8999999999999924E-2</v>
+        <v>0</v>
       </c>
       <c r="DD73" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="DE73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF73" s="2">
-        <v>9.199999999999986E-2</v>
+        <v>0</v>
       </c>
       <c r="DG73" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="DH73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI73" s="2">
-        <v>-1.0000000000000009E-2</v>
+        <v>0</v>
       </c>
       <c r="DJ73" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="DK73" s="2">
         <v>0</v>
       </c>
       <c r="DL73" s="2">
-        <v>-6.0000000000000053E-3</v>
+        <v>0</v>
       </c>
       <c r="DM73" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="DN73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO73" s="2">
-        <v>6.1999999999999944E-2</v>
+        <v>0</v>
       </c>
       <c r="DP73" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="DQ73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR73" s="2">
-        <v>-0.1379999999999999</v>
+        <v>0</v>
       </c>
       <c r="DS73" s="2" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="DT73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU73" s="2">
-        <v>-0.12800000000000011</v>
+        <v>0</v>
       </c>
       <c r="DV73" s="2" t="s">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="DW73" s="2">
         <v>1</v>
       </c>
       <c r="DX73" s="2">
-        <v>-5.4999999999999938E-2</v>
+        <v>0</v>
       </c>
       <c r="DY73" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="DZ73" s="2">
         <v>1</v>
       </c>
       <c r="EA73" s="2">
-        <v>0.17500000000000004</v>
+        <v>0</v>
       </c>
       <c r="EB73" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="EC73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED73" s="2">
-        <v>0.13400000000000012</v>
+        <v>0</v>
       </c>
       <c r="EE73" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="EF73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG73" s="2">
-        <v>-5.9999999999999942E-2</v>
+        <v>0</v>
       </c>
       <c r="EH73" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="EI73" s="2">
         <v>0</v>
       </c>
       <c r="EJ73" s="2">
-        <v>8.999999999999897E-3</v>
+        <v>0</v>
       </c>
       <c r="EK73" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="EL73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM73" s="2">
-        <v>8.4999999999999964E-2</v>
+        <v>0</v>
       </c>
       <c r="EN73" s="2" t="s">
-        <v>269</v>
+        <v>44</v>
       </c>
       <c r="EO73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP73" s="2">
-        <v>-6.800000000000006E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:146" x14ac:dyDescent="0.3">
@@ -31353,7 +31347,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D75" s="2">
         <v>1</v>
@@ -31389,7 +31383,7 @@
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P75" s="2">
         <v>1</v>
@@ -31461,7 +31455,7 @@
         <v>0</v>
       </c>
       <c r="AM75" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AN75" s="2">
         <v>0</v>
@@ -31533,7 +31527,7 @@
         <v>-1.6000000000000014E-2</v>
       </c>
       <c r="BK75" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="BL75" s="2">
         <v>1</v>
@@ -31713,7 +31707,7 @@
         <v>-1.6999999999999904E-2</v>
       </c>
       <c r="DS75" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="DT75" s="2">
         <v>1</v>
@@ -32296,7 +32290,7 @@
         <v>2.200000000000002E-2</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Y77" s="2">
         <v>0</v>
@@ -32413,7 +32407,7 @@
         <v>-3.1000000000000028E-2</v>
       </c>
       <c r="BK77" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="BL77" s="2">
         <v>1</v>
@@ -32458,7 +32452,7 @@
         <v>6.700000000000006E-2</v>
       </c>
       <c r="BZ77" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="CA77" s="2">
         <v>1</v>
@@ -32530,7 +32524,7 @@
         <v>-1.4999999999999902E-2</v>
       </c>
       <c r="CX77" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="CY77" s="2">
         <v>1</v>
@@ -32727,7 +32721,7 @@
         <v>2.0999999999999908E-2</v>
       </c>
       <c r="AS78" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AT78" s="2">
         <v>1</v>
@@ -32781,7 +32775,7 @@
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="BK78" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="BL78" s="2">
         <v>1</v>
@@ -32826,7 +32820,7 @@
         <v>2.7000000000000024E-2</v>
       </c>
       <c r="BZ78" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="CA78" s="2">
         <v>1</v>
@@ -32969,7 +32963,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D79" s="2">
         <v>1</v>
@@ -33266,7 +33260,7 @@
         <v>2E-3</v>
       </c>
       <c r="CX79" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="CY79" s="2">
         <v>1</v>
@@ -33329,7 +33323,7 @@
         <v>0</v>
       </c>
       <c r="DS79" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="DT79" s="2">
         <v>1</v>
@@ -33409,7 +33403,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D80" s="2">
         <v>1</v>
@@ -33418,7 +33412,7 @@
         <v>-0.98299999999999998</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G80" s="2">
         <v>0</v>
@@ -33427,7 +33421,7 @@
         <v>-0.98199999999999998</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J80" s="2">
         <v>0</v>
@@ -33436,7 +33430,7 @@
         <v>-0.99299999999999999</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M80" s="2">
         <v>0</v>
@@ -33445,7 +33439,7 @@
         <v>-0.99</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P80" s="2">
         <v>1</v>
@@ -33454,7 +33448,7 @@
         <v>-0.97899999999999998</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="S80" s="2">
         <v>0</v>
@@ -33463,7 +33457,7 @@
         <v>-0.995</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="V80" s="2">
         <v>0</v>
@@ -33472,7 +33466,7 @@
         <v>-0.98899999999999999</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="Y80" s="2">
         <v>0</v>
@@ -33481,7 +33475,7 @@
         <v>-0.98199999999999998</v>
       </c>
       <c r="AA80" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AB80" s="2">
         <v>0</v>
@@ -33490,7 +33484,7 @@
         <v>-0.99199999999999999</v>
       </c>
       <c r="AD80" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AE80" s="2">
         <v>0</v>
@@ -33499,7 +33493,7 @@
         <v>-0.99299999999999999</v>
       </c>
       <c r="AG80" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AH80" s="2">
         <v>0</v>
@@ -33508,7 +33502,7 @@
         <v>-0.98699999999999999</v>
       </c>
       <c r="AJ80" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AK80" s="2">
         <v>0</v>
@@ -33517,7 +33511,7 @@
         <v>-0.998</v>
       </c>
       <c r="AM80" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AN80" s="2">
         <v>0</v>
@@ -33526,7 +33520,7 @@
         <v>-0.97399999999999998</v>
       </c>
       <c r="AP80" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AQ80" s="2">
         <v>0</v>
@@ -33544,7 +33538,7 @@
         <v>-0.9850000000000001</v>
       </c>
       <c r="AV80" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AW80" s="2">
         <v>0</v>
@@ -33553,7 +33547,7 @@
         <v>-1.004</v>
       </c>
       <c r="AY80" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AZ80" s="2">
         <v>0</v>
@@ -33562,7 +33556,7 @@
         <v>-0.996</v>
       </c>
       <c r="BB80" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BC80" s="2">
         <v>0</v>
@@ -33580,7 +33574,7 @@
         <v>-0.9840000000000001</v>
       </c>
       <c r="BH80" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="BI80" s="2">
         <v>0</v>
@@ -33589,7 +33583,7 @@
         <v>-1.0010000000000001</v>
       </c>
       <c r="BK80" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="BL80" s="2">
         <v>1</v>
@@ -33598,7 +33592,7 @@
         <v>-1.022</v>
       </c>
       <c r="BN80" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="BO80" s="2">
         <v>0</v>
@@ -33607,7 +33601,7 @@
         <v>-0.98699999999999999</v>
       </c>
       <c r="BQ80" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="BR80" s="2">
         <v>0</v>
@@ -33616,7 +33610,7 @@
         <v>-0.99099999999999988</v>
       </c>
       <c r="BT80" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="BU80" s="2">
         <v>0</v>
@@ -33625,7 +33619,7 @@
         <v>-0.996</v>
       </c>
       <c r="BW80" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="BX80" s="2">
         <v>0</v>
@@ -33634,7 +33628,7 @@
         <v>-1.0009999999999999</v>
       </c>
       <c r="BZ80" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="CA80" s="2">
         <v>1</v>
@@ -33670,7 +33664,7 @@
         <v>-0.99199999999999999</v>
       </c>
       <c r="CL80" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="CM80" s="2">
         <v>0</v>
@@ -33679,7 +33673,7 @@
         <v>-0.99099999999999999</v>
       </c>
       <c r="CO80" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="CP80" s="2">
         <v>0</v>
@@ -33688,7 +33682,7 @@
         <v>-0.99399999999999999</v>
       </c>
       <c r="CR80" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="CS80" s="2">
         <v>0</v>
@@ -33697,7 +33691,7 @@
         <v>-0.99499999999999988</v>
       </c>
       <c r="CU80" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="CV80" s="2">
         <v>0</v>
@@ -33706,7 +33700,7 @@
         <v>-1.0009999999999999</v>
       </c>
       <c r="CX80" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="CY80" s="2">
         <v>0</v>
@@ -33724,7 +33718,7 @@
         <v>-0.99299999999999999</v>
       </c>
       <c r="DD80" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="DE80" s="2">
         <v>0</v>
@@ -33742,7 +33736,7 @@
         <v>-0.99299999999999999</v>
       </c>
       <c r="DJ80" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="DK80" s="2">
         <v>0</v>
@@ -33751,7 +33745,7 @@
         <v>-0.99399999999999999</v>
       </c>
       <c r="DM80" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="DN80" s="2">
         <v>1</v>
@@ -33760,7 +33754,7 @@
         <v>-0.98799999999999999</v>
       </c>
       <c r="DP80" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="DQ80" s="2">
         <v>1</v>
@@ -34217,7 +34211,7 @@
         <v>0</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D82" s="2">
         <v>1</v>
@@ -34325,7 +34319,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AM82" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AN82" s="2">
         <v>0</v>
@@ -34514,7 +34508,7 @@
         <v>-9.9999999999988987E-4</v>
       </c>
       <c r="CX82" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="CY82" s="2">
         <v>1</v>
@@ -34532,7 +34526,7 @@
         <v>0</v>
       </c>
       <c r="DD82" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="DE82" s="2">
         <v>1</v>
@@ -34568,7 +34562,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="DP82" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="DQ82" s="2">
         <v>1</v>
@@ -34594,7 +34588,7 @@
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G83" s="2">
         <v>1</v>
@@ -34603,7 +34597,7 @@
         <v>-0.99199999999999999</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J83" s="2">
         <v>0</v>
@@ -34612,7 +34606,7 @@
         <v>-0.997</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M83" s="2">
         <v>1</v>
@@ -34621,7 +34615,7 @@
         <v>-0.99</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="P83" s="2">
         <v>1</v>
@@ -34630,7 +34624,7 @@
         <v>-0.99899999999999989</v>
       </c>
       <c r="R83" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="S83" s="2">
         <v>0</v>
@@ -34639,7 +34633,7 @@
         <v>-0.995</v>
       </c>
       <c r="U83" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="V83" s="2">
         <v>1</v>
@@ -34648,7 +34642,7 @@
         <v>-0.99899999999999989</v>
       </c>
       <c r="X83" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Y83" s="2">
         <v>1</v>
@@ -34657,7 +34651,7 @@
         <v>-0.99199999999999999</v>
       </c>
       <c r="AA83" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AB83" s="2">
         <v>0</v>
@@ -34666,7 +34660,7 @@
         <v>-0.997</v>
       </c>
       <c r="AD83" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AE83" s="2">
         <v>1</v>
@@ -34675,7 +34669,7 @@
         <v>-0.99299999999999999</v>
       </c>
       <c r="AG83" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AH83" s="2">
         <v>1</v>
@@ -34684,7 +34678,7 @@
         <v>-0.997</v>
       </c>
       <c r="AJ83" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AK83" s="2">
         <v>1</v>
@@ -34693,7 +34687,7 @@
         <v>-0.998</v>
       </c>
       <c r="AM83" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AN83" s="2">
         <v>0</v>
@@ -34702,7 +34696,7 @@
         <v>-0.99999999999999989</v>
       </c>
       <c r="AP83" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AQ83" s="2">
         <v>1</v>
@@ -34720,7 +34714,7 @@
         <v>-0.99500000000000011</v>
       </c>
       <c r="AV83" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW83" s="2">
         <v>0</v>
@@ -34729,7 +34723,7 @@
         <v>-1</v>
       </c>
       <c r="AY83" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AZ83" s="2">
         <v>0</v>
@@ -34738,7 +34732,7 @@
         <v>-0.996</v>
       </c>
       <c r="BB83" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="BC83" s="2">
         <v>0</v>
@@ -34747,7 +34741,7 @@
         <v>-0.99999999999999989</v>
       </c>
       <c r="BE83" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="BF83" s="2">
         <v>1</v>
@@ -34756,7 +34750,7 @@
         <v>-0.99399999999999999</v>
       </c>
       <c r="BH83" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="BI83" s="2">
         <v>0</v>
@@ -34765,7 +34759,7 @@
         <v>-1.0010000000000001</v>
       </c>
       <c r="BK83" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="BL83" s="2">
         <v>1</v>
@@ -34774,7 +34768,7 @@
         <v>2.9999999999998916E-3</v>
       </c>
       <c r="BN83" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="BO83" s="2">
         <v>0</v>
@@ -34783,7 +34777,7 @@
         <v>-0.997</v>
       </c>
       <c r="BQ83" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="BR83" s="2">
         <v>1</v>
@@ -34792,7 +34786,7 @@
         <v>-0.99899999999999989</v>
       </c>
       <c r="BT83" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="BU83" s="2">
         <v>1</v>
@@ -34801,7 +34795,7 @@
         <v>-1</v>
       </c>
       <c r="BW83" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="BX83" s="2">
         <v>1</v>
@@ -34810,7 +34804,7 @@
         <v>-0.99099999999999999</v>
       </c>
       <c r="BZ83" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="CA83" s="2">
         <v>1</v>
@@ -34846,7 +34840,7 @@
         <v>-0.99199999999999999</v>
       </c>
       <c r="CL83" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="CM83" s="2">
         <v>1</v>
@@ -34855,7 +34849,7 @@
         <v>-0.999</v>
       </c>
       <c r="CO83" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="CP83" s="2">
         <v>1</v>
@@ -34864,7 +34858,7 @@
         <v>-0.99399999999999999</v>
       </c>
       <c r="CR83" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="CS83" s="2">
         <v>1</v>
@@ -34882,7 +34876,7 @@
         <v>-1.0009999999999999</v>
       </c>
       <c r="CX83" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="CY83" s="2">
         <v>1</v>
@@ -34891,7 +34885,7 @@
         <v>-1.008</v>
       </c>
       <c r="DA83" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="DB83" s="2">
         <v>1</v>
@@ -34900,7 +34894,7 @@
         <v>-0.99299999999999999</v>
       </c>
       <c r="DD83" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="DE83" s="2">
         <v>1</v>
@@ -34918,7 +34912,7 @@
         <v>-0.99299999999999999</v>
       </c>
       <c r="DJ83" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="DK83" s="2">
         <v>1</v>
@@ -34927,7 +34921,7 @@
         <v>-1.0010000000000001</v>
       </c>
       <c r="DM83" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="DN83" s="2">
         <v>1</v>
@@ -34936,7 +34930,7 @@
         <v>-0.998</v>
       </c>
       <c r="DP83" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="DQ83" s="2">
         <v>1</v>
@@ -34962,7 +34956,7 @@
         <v>-0.125</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G84" s="2">
         <v>0</v>
@@ -34989,7 +34983,7 @@
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P84" s="2">
         <v>0</v>
@@ -34998,7 +34992,7 @@
         <v>-0.11499999999999999</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S84" s="2">
         <v>0</v>
@@ -35007,7 +35001,7 @@
         <v>6.5000000000000058E-2</v>
       </c>
       <c r="U84" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="V84" s="2">
         <v>0</v>
@@ -35016,7 +35010,7 @@
         <v>1.100000000000001E-2</v>
       </c>
       <c r="X84" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Y84" s="2">
         <v>0</v>
@@ -35025,7 +35019,7 @@
         <v>7.8000000000000069E-2</v>
       </c>
       <c r="AA84" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AB84" s="2">
         <v>0</v>
@@ -35034,7 +35028,7 @@
         <v>-4.9000000000000044E-2</v>
       </c>
       <c r="AD84" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AE84" s="2">
         <v>0</v>
@@ -35052,7 +35046,7 @@
         <v>-7.0000000000000062E-3</v>
       </c>
       <c r="AJ84" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AK84" s="2">
         <v>1</v>
@@ -35097,7 +35091,7 @@
         <v>-4.2000000000000037E-2</v>
       </c>
       <c r="AY84" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AZ84" s="2">
         <v>0</v>
@@ -35115,7 +35109,7 @@
         <v>-3.0999999999999917E-2</v>
       </c>
       <c r="BE84" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BF84" s="2">
         <v>0</v>
@@ -35133,7 +35127,7 @@
         <v>-4.2000000000000037E-2</v>
       </c>
       <c r="BK84" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="BL84" s="2">
         <v>0</v>
@@ -35142,7 +35136,7 @@
         <v>-0.31100000000000005</v>
       </c>
       <c r="BN84" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="BO84" s="2">
         <v>0</v>
@@ -35151,7 +35145,7 @@
         <v>-0.22699999999999998</v>
       </c>
       <c r="BQ84" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="BR84" s="2">
         <v>0</v>
@@ -35160,7 +35154,7 @@
         <v>-0.24499999999999988</v>
       </c>
       <c r="BT84" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="BU84" s="2">
         <v>1</v>
@@ -35169,7 +35163,7 @@
         <v>-0.31000000000000005</v>
       </c>
       <c r="BW84" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="BX84" s="2">
         <v>0</v>
@@ -35178,7 +35172,7 @@
         <v>7.900000000000007E-2</v>
       </c>
       <c r="BZ84" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="CA84" s="2">
         <v>0</v>
@@ -35187,7 +35181,7 @@
         <v>-0.29100000000000004</v>
       </c>
       <c r="CC84" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CD84" s="2">
         <v>0</v>
@@ -35196,7 +35190,7 @@
         <v>7.5000000000000067E-2</v>
       </c>
       <c r="CF84" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="CG84" s="2">
         <v>0</v>
@@ -35205,7 +35199,7 @@
         <v>-0.19699999999999995</v>
       </c>
       <c r="CI84" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="CJ84" s="2">
         <v>0</v>
@@ -35214,7 +35208,7 @@
         <v>0.13800000000000012</v>
       </c>
       <c r="CL84" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="CM84" s="2">
         <v>0</v>
@@ -35232,7 +35226,7 @@
         <v>9.6000000000000085E-2</v>
       </c>
       <c r="CR84" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="CS84" s="2">
         <v>1</v>
@@ -35268,7 +35262,7 @@
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="DD84" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="DE84" s="2">
         <v>0</v>
@@ -35286,7 +35280,7 @@
         <v>-1.3000000000000012E-2</v>
       </c>
       <c r="DJ84" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="DK84" s="2">
         <v>0</v>
@@ -35304,7 +35298,7 @@
         <v>4.1999999999999926E-2</v>
       </c>
       <c r="DP84" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="DQ84" s="2">
         <v>0</v>
@@ -35321,7 +35315,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D85" s="2">
         <v>0</v>
@@ -35330,7 +35324,7 @@
         <v>-9.4999999999999973E-2</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G85" s="2">
         <v>0</v>
@@ -35348,7 +35342,7 @@
         <v>-2.4000000000000021E-2</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M85" s="2">
         <v>0</v>
@@ -35366,7 +35360,7 @@
         <v>-8.4999999999999964E-2</v>
       </c>
       <c r="R85" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S85" s="2">
         <v>0</v>
@@ -35384,7 +35378,7 @@
         <v>4.1000000000000036E-2</v>
       </c>
       <c r="X85" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Y85" s="2">
         <v>0</v>
@@ -35420,7 +35414,7 @@
         <v>1.3000000000000012E-2</v>
       </c>
       <c r="AJ85" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AK85" s="2">
         <v>1</v>
@@ -35447,7 +35441,7 @@
         <v>-7.4000000000000066E-2</v>
       </c>
       <c r="AS85" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AT85" s="2">
         <v>0</v>
@@ -35474,7 +35468,7 @@
         <v>-3.2000000000000028E-2</v>
       </c>
       <c r="BB85" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BC85" s="2">
         <v>0</v>
@@ -35492,7 +35486,7 @@
         <v>2.5999999999999912E-2</v>
       </c>
       <c r="BH85" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BI85" s="2">
         <v>0</v>
@@ -35501,7 +35495,7 @@
         <v>-1.2000000000000011E-2</v>
       </c>
       <c r="BK85" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="BL85" s="2">
         <v>0</v>
@@ -35510,7 +35504,7 @@
         <v>0.14900000000000002</v>
       </c>
       <c r="BN85" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="BO85" s="2">
         <v>0</v>
@@ -35519,7 +35513,7 @@
         <v>9.3000000000000083E-2</v>
       </c>
       <c r="BQ85" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="BR85" s="2">
         <v>0</v>
@@ -35528,7 +35522,7 @@
         <v>0.21500000000000008</v>
       </c>
       <c r="BT85" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="BU85" s="2">
         <v>0</v>
@@ -35537,7 +35531,7 @@
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="BW85" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BX85" s="2">
         <v>0</v>
@@ -35546,7 +35540,7 @@
         <v>9.9000000000000088E-2</v>
       </c>
       <c r="BZ85" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="CA85" s="2">
         <v>0</v>
@@ -35564,7 +35558,7 @@
         <v>5.5000000000000049E-2</v>
       </c>
       <c r="CF85" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="CG85" s="2">
         <v>0</v>
@@ -35582,7 +35576,7 @@
         <v>0.1180000000000001</v>
       </c>
       <c r="CL85" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="CM85" s="2">
         <v>0</v>
@@ -35591,7 +35585,7 @@
         <v>0.20399999999999996</v>
       </c>
       <c r="CO85" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="CP85" s="2">
         <v>1</v>
@@ -35600,7 +35594,7 @@
         <v>8.6000000000000076E-2</v>
       </c>
       <c r="CR85" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="CS85" s="2">
         <v>0</v>
@@ -35618,7 +35612,7 @@
         <v>-3.0999999999999917E-2</v>
       </c>
       <c r="CX85" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="CY85" s="2">
         <v>0</v>
@@ -35636,7 +35630,7 @@
         <v>1.7000000000000015E-2</v>
       </c>
       <c r="DD85" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="DE85" s="2">
         <v>0</v>
@@ -35654,7 +35648,7 @@
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="DJ85" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="DK85" s="2">
         <v>0</v>
@@ -35663,7 +35657,7 @@
         <v>0.17799999999999994</v>
       </c>
       <c r="DM85" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="DN85" s="2">
         <v>0</v>
@@ -35672,7 +35666,7 @@
         <v>7.1999999999999953E-2</v>
       </c>
       <c r="DP85" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="DQ85" s="2">
         <v>0</v>
@@ -36165,7 +36159,7 @@
         <v>-6.0000000000000053E-3</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P87" s="2">
         <v>0</v>
@@ -36255,7 +36249,7 @@
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="AS87" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AT87" s="2">
         <v>1</v>
@@ -36309,7 +36303,7 @@
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="BK87" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="BL87" s="2">
         <v>1</v>
@@ -36354,7 +36348,7 @@
         <v>9.000000000000008E-3</v>
       </c>
       <c r="BZ87" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CA87" s="2">
         <v>1</v>
@@ -36426,7 +36420,7 @@
         <v>-3.9999999999998925E-3</v>
       </c>
       <c r="CX87" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="CY87" s="2">
         <v>1</v>
@@ -36480,7 +36474,7 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="DP87" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="DQ87" s="2">
         <v>1</v>
@@ -36497,7 +36491,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D88" s="2">
         <v>1</v>
@@ -36722,7 +36716,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="BZ88" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="CA88" s="2">
         <v>1</v>
@@ -36848,7 +36842,7 @@
         <v>-9.000000000000008E-3</v>
       </c>
       <c r="DP88" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="DQ88" s="2">
         <v>1</v>
@@ -36973,7 +36967,7 @@
         <v>1.9000000000000017E-2</v>
       </c>
       <c r="AM89" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AN89" s="2">
         <v>0</v>
@@ -37045,7 +37039,7 @@
         <v>9.9999999999988987E-4</v>
       </c>
       <c r="BK89" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="BL89" s="2">
         <v>1</v>
@@ -37162,7 +37156,7 @@
         <v>-4.9999999999998934E-3</v>
       </c>
       <c r="CX89" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="CY89" s="2">
         <v>1</v>
@@ -37898,7 +37892,7 @@
         <v>0</v>
       </c>
       <c r="BZ91" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="CA91" s="2">
         <v>1</v>
@@ -38024,7 +38018,7 @@
         <v>0</v>
       </c>
       <c r="DP91" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="DQ91" s="2">
         <v>1</v>
